--- a/hardware/doc/jlc/piezopiano_v14_jlc_bom_20230110.xlsx
+++ b/hardware/doc/jlc/piezopiano_v14_jlc_bom_20230110.xlsx
@@ -268,16 +268,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF444444"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -302,10 +296,8 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -828,16 +820,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1"/>
@@ -878,16 +870,16 @@
       <c r="AP1" s="1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1"/>
@@ -928,16 +920,16 @@
       <c r="AP2" s="1"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
@@ -978,16 +970,16 @@
       <c r="AP3" s="1"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1"/>
@@ -1028,16 +1020,16 @@
       <c r="AP4" s="1"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1"/>
@@ -1078,16 +1070,16 @@
       <c r="AP5" s="1"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="1"/>
@@ -1128,16 +1120,16 @@
       <c r="AP6" s="1"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1"/>
@@ -1178,16 +1170,16 @@
       <c r="AP7" s="1"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1"/>
@@ -1228,16 +1220,16 @@
       <c r="AP8" s="1"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="1"/>
@@ -1278,16 +1270,16 @@
       <c r="AP9" s="1"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="1"/>
@@ -1328,16 +1320,16 @@
       <c r="AP10" s="1"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="1"/>
@@ -1378,16 +1370,16 @@
       <c r="AP11" s="1"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="1"/>
@@ -1428,16 +1420,16 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="1"/>
@@ -1478,16 +1470,16 @@
       <c r="AP13" s="1"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="1"/>
@@ -1528,16 +1520,16 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="1"/>
@@ -1578,16 +1570,16 @@
       <c r="AP15" s="1"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="1"/>
@@ -1628,16 +1620,16 @@
       <c r="AP16" s="1"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="1"/>
@@ -1678,16 +1670,16 @@
       <c r="AP17" s="1"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="1"/>
@@ -1728,16 +1720,16 @@
       <c r="AP18" s="1"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="1"/>
@@ -1778,16 +1770,16 @@
       <c r="AP19" s="1"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="G20" s="1"/>
@@ -1828,16 +1820,16 @@
       <c r="AP20" s="1"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="1"/>
@@ -1878,16 +1870,16 @@
       <c r="AP21" s="1"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="1"/>
@@ -1930,16 +1922,16 @@
       <c r="AP22" s="1"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" s="1"/>
